--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2405212.828474775</v>
+        <v>-2406026.275686664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954291</v>
+        <v>2927877.345954293</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>239.4294881849439</v>
+        <v>181.7044396000879</v>
       </c>
       <c r="D11" t="n">
         <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
         <v>321.0125464443796</v>
@@ -1388,7 +1388,7 @@
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241309</v>
+        <v>61.32070768241311</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545167</v>
+        <v>84.08218037545166</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842795</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024232</v>
@@ -1436,7 +1436,7 @@
         <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310321</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945686</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1540,13 +1540,13 @@
         <v>61.95871608592887</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>26.85329155039355</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366591</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227656</v>
+        <v>46.49600542227657</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271697</v>
+        <v>48.16276991271698</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
@@ -1582,7 +1582,7 @@
         <v>140.8174128706117</v>
       </c>
       <c r="U13" t="n">
-        <v>148.8515680831665</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V13" t="n">
         <v>169.1308190586098</v>
@@ -1591,7 +1591,7 @@
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864967</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>321.0125464443794</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922379</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>99.02784861754036</v>
       </c>
       <c r="I14" t="n">
-        <v>42.85581057199045</v>
+        <v>61.32070768241297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545167</v>
+        <v>84.08218037545154</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.2962484526288</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244661</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898424</v>
+        <v>92.72268265898411</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.92267750438459</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12.28019704761405</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774256</v>
+        <v>61.49179175774243</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592874</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033077</v>
+        <v>77.99174215033064</v>
       </c>
       <c r="H16" t="n">
-        <v>66.52333174927006</v>
+        <v>66.63306124366576</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227656</v>
+        <v>46.49600542227643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271697</v>
+        <v>48.16276991271684</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706117</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>194.2977051292229</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
         <v>244.0827549329389</v>
@@ -1859,7 +1859,7 @@
         <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010996</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283883</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130256</v>
@@ -1907,7 +1907,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
         <v>223.6795130199279</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H19" t="n">
-        <v>18.80205049538958</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794432</v>
+        <v>197.3959288546025</v>
       </c>
       <c r="T19" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2081,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
         <v>244.0827549329389</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010996</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283883</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V20" t="n">
         <v>167.6825575130256</v>
@@ -2144,7 +2144,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
         <v>223.6795130199279</v>
@@ -2211,7 +2211,7 @@
         <v>145.9169861849574</v>
       </c>
       <c r="T21" t="n">
-        <v>185.636318686608</v>
+        <v>185.6363186866066</v>
       </c>
       <c r="U21" t="n">
         <v>216.2908792854683</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C22" t="n">
-        <v>157.9548387396023</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20.46881498582977</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T22" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W22" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
         <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
         <v>244.0827549329389</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283887</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V23" t="n">
         <v>167.6825575130256</v>
@@ -2381,7 +2381,7 @@
         <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
         <v>223.6795130199279</v>
@@ -2445,7 +2445,7 @@
         <v>41.28834215945685</v>
       </c>
       <c r="S24" t="n">
-        <v>145.9169861849574</v>
+        <v>145.9169861849573</v>
       </c>
       <c r="T24" t="n">
         <v>185.6363186866066</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754357</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.482729145033491</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T25" t="n">
-        <v>63.887621359171</v>
+        <v>201.9347306014278</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W25" t="n">
         <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668825</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245643</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690923</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3387114389979</v>
+        <v>288.3387114389978</v>
       </c>
       <c r="F26" t="n">
-        <v>307.5105275269751</v>
+        <v>307.510527526975</v>
       </c>
       <c r="G26" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748332</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403572</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500858</v>
+        <v>47.81868876500846</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804704</v>
       </c>
       <c r="T26" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668749</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352243</v>
       </c>
       <c r="V26" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070617</v>
       </c>
       <c r="W26" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850186</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177652</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.1072856139641</v>
+        <v>287.1072856139639</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157961</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698021</v>
+        <v>65.4206585869801</v>
       </c>
       <c r="D28" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455849</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033793</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852424</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292614</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626127</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487193</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531234</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019804</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.315393953207</v>
       </c>
       <c r="U28" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967286</v>
       </c>
       <c r="V28" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412052</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118185</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076216</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636893</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668827</v>
+        <v>287.6039528668825</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245643</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690924</v>
+        <v>266.5965738690923</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389979</v>
+        <v>288.3387114389978</v>
       </c>
       <c r="F32" t="n">
-        <v>307.5105275269751</v>
+        <v>307.510527526975</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748332</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403573</v>
+        <v>221.4761640403572</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500847</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804704</v>
       </c>
       <c r="T32" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668749</v>
       </c>
       <c r="U32" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070618</v>
+        <v>231.1103301070617</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850187</v>
+        <v>256.4104295850186</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177653</v>
+        <v>275.7106878177652</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.1072856139641</v>
+        <v>287.1072856139639</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157963</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698011</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845585</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033795</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852426</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292615</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626128</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487195</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531236</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019805</v>
+        <v>104.8617487019804</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532071</v>
+        <v>127.315393953207</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967287</v>
+        <v>181.8060034967286</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412052</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118186</v>
+        <v>180.7956862118185</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076216</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636893</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112968</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995752</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830698</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970466</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466226</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C37" t="n">
-        <v>34.84989023619052</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600878</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343911</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506301</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628968</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070423</v>
+        <v>95.87001985683138</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677191</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499653</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.5276651076471</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
         <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220806</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
         <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
-        <v>258.817414057916</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
         <v>171.3885593234399</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112982</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995767</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830712</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V38" t="n">
         <v>181.0227253901444</v>
@@ -3566,10 +3566,10 @@
         <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
-        <v>225.623083100848</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970467</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.1330590246624</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006288</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600892</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609344053</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>74.29098035118936</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628982</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.541195424288</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949013</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070437</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677205</v>
+        <v>86.74488761289906</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499652</v>
+        <v>237.516348149965</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076469</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521747</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234396</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112951</v>
       </c>
       <c r="T41" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995735</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830681</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901441</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681012</v>
+        <v>206.322824868101</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970464</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466209</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006257</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.91895488213701</v>
+        <v>14.40211851600861</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343882</v>
+        <v>3.043437609343742</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.51683636612943</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506284</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628951</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798112</v>
+        <v>131.718398779811</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W43" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949009</v>
       </c>
       <c r="X43" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070405</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677174</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5163481499652</v>
+        <v>237.516348149965</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.5276651076468</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521749</v>
+        <v>216.5089691521747</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220803</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100575</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579157</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234396</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112965</v>
+        <v>20.4925567411295</v>
       </c>
       <c r="T44" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995735</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830681</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901441</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.322824868101</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008477</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970464</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945683</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466209</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006257</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600861</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343882</v>
+        <v>22.56027397547317</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506284</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628951</v>
       </c>
       <c r="U46" t="n">
-        <v>151.2352351459394</v>
+        <v>131.718398779811</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242877</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949009</v>
       </c>
       <c r="X46" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070405</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677174</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1198.952063938423</v>
+        <v>1445.53356067736</v>
       </c>
       <c r="C11" t="n">
-        <v>957.1040960748437</v>
+        <v>1261.993722697473</v>
       </c>
       <c r="D11" t="n">
-        <v>674.1762245733318</v>
+        <v>979.065851195961</v>
       </c>
       <c r="E11" t="n">
-        <v>674.1762245733318</v>
+        <v>674.1762245733323</v>
       </c>
       <c r="F11" t="n">
         <v>349.9211271547665</v>
@@ -5036,7 +5036,7 @@
         <v>112.5694271974314</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
         <v>167.8985774144699</v>
@@ -5051,13 +5051,13 @@
         <v>1394.843741810911</v>
       </c>
       <c r="N11" t="n">
-        <v>1868.349012376772</v>
+        <v>1831.732426143463</v>
       </c>
       <c r="O11" t="n">
-        <v>2263.223623021737</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.433668932841</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.453891002492</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="V11" t="n">
-        <v>2067.370710169698</v>
+        <v>2314.453891002491</v>
       </c>
       <c r="W11" t="n">
-        <v>1794.731873298563</v>
+        <v>2041.815054131357</v>
       </c>
       <c r="X11" t="n">
-        <v>1502.597826091321</v>
+        <v>1749.681006924114</v>
       </c>
       <c r="Y11" t="n">
-        <v>1198.952063938423</v>
+        <v>1749.681006924114</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779667</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189216</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9862327738861</v>
+        <v>108.9862327738865</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
         <v>137.8463925088447</v>
@@ -5127,10 +5127,10 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>1398.552487108883</v>
+        <v>1398.552487108882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459617</v>
       </c>
       <c r="O12" t="n">
         <v>1980.672185824252</v>
@@ -5145,19 +5145,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T12" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.1881393084236</v>
+        <v>459.6187986963625</v>
       </c>
       <c r="C13" t="n">
-        <v>285.4682630413683</v>
+        <v>379.8989224293072</v>
       </c>
       <c r="D13" t="n">
-        <v>222.2924631403954</v>
+        <v>316.7231225283344</v>
       </c>
       <c r="E13" t="n">
-        <v>160.1795421729787</v>
+        <v>254.6102015609176</v>
       </c>
       <c r="F13" t="n">
-        <v>97.59498047002023</v>
+        <v>192.0256398579592</v>
       </c>
       <c r="G13" t="n">
-        <v>97.59498047002023</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002023</v>
+        <v>97.59498047002074</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413172</v>
+        <v>96.7900541541317</v>
       </c>
       <c r="K13" t="n">
         <v>246.2990519958641</v>
@@ -5206,7 +5206,7 @@
         <v>470.5847128405359</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447745</v>
+        <v>714.1904553447744</v>
       </c>
       <c r="N13" t="n">
         <v>957.3332466068811</v>
@@ -5230,19 +5230,19 @@
         <v>1117.658424212474</v>
       </c>
       <c r="U13" t="n">
-        <v>967.3033049365483</v>
+        <v>920.3775934911273</v>
       </c>
       <c r="V13" t="n">
-        <v>796.4640937662352</v>
+        <v>749.5383823208143</v>
       </c>
       <c r="W13" t="n">
-        <v>600.2037855548988</v>
+        <v>553.2780741094779</v>
       </c>
       <c r="X13" t="n">
-        <v>458.8474147215389</v>
+        <v>553.2780741094779</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.8474147215389</v>
+        <v>553.2780741094779</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.115779805844</v>
+        <v>1742.371492489376</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.078114409916</v>
+        <v>1450.333827093448</v>
       </c>
       <c r="D14" t="n">
-        <v>1286.078114409916</v>
+        <v>1167.405955591936</v>
       </c>
       <c r="E14" t="n">
-        <v>981.1884877872868</v>
+        <v>862.5163289693076</v>
       </c>
       <c r="F14" t="n">
-        <v>656.9333903687216</v>
+        <v>538.2612315507424</v>
       </c>
       <c r="G14" t="n">
-        <v>331.2697159321177</v>
+        <v>212.5975571141387</v>
       </c>
       <c r="H14" t="n">
-        <v>93.91801597478224</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
@@ -5285,16 +5285,16 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.227155577603</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.732426143464</v>
+        <v>1679.700173710448</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.465921365857</v>
@@ -5309,19 +5309,19 @@
         <v>2446.534426037118</v>
       </c>
       <c r="U14" t="n">
-        <v>2446.534426037118</v>
+        <v>2281.588720529412</v>
       </c>
       <c r="V14" t="n">
-        <v>2446.534426037118</v>
+        <v>2034.505539696618</v>
       </c>
       <c r="W14" t="n">
-        <v>2173.895589165983</v>
+        <v>2034.505539696618</v>
       </c>
       <c r="X14" t="n">
-        <v>1881.761541958741</v>
+        <v>1742.371492489376</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.115779805844</v>
+        <v>1742.371492489376</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K15" t="n">
-        <v>50.62931842731714</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L15" t="n">
-        <v>478.4167050432619</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M15" t="n">
-        <v>1035.760922695</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
-        <v>1621.251286365768</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O15" t="n">
-        <v>2081.352352730404</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P15" t="n">
-        <v>2437.944903527533</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365856</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.6827235582463</v>
+        <v>460.502238843421</v>
       </c>
       <c r="C16" t="n">
-        <v>305.6827235582463</v>
+        <v>380.7823625763658</v>
       </c>
       <c r="D16" t="n">
-        <v>305.6827235582463</v>
+        <v>368.3781231343313</v>
       </c>
       <c r="E16" t="n">
-        <v>243.5698025908296</v>
+        <v>306.2652021669147</v>
       </c>
       <c r="F16" t="n">
-        <v>243.5698025908296</v>
+        <v>243.6806404639564</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7902650652431</v>
+        <v>164.9011029383699</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002074</v>
+        <v>97.59498047002066</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413189</v>
+        <v>96.79005415413184</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958644</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405363</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447746</v>
+        <v>714.190455344775</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068813</v>
+        <v>957.3332466068819</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424592</v>
+        <v>1379.457596424593</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.457596424592</v>
+        <v>1259.898235192892</v>
       </c>
       <c r="T16" t="n">
-        <v>1237.217785444176</v>
+        <v>1259.898235192892</v>
       </c>
       <c r="U16" t="n">
-        <v>1039.936954722829</v>
+        <v>1062.617404471545</v>
       </c>
       <c r="V16" t="n">
-        <v>869.0977435525164</v>
+        <v>891.7781933012322</v>
       </c>
       <c r="W16" t="n">
-        <v>672.8374353411799</v>
+        <v>695.5178850898959</v>
       </c>
       <c r="X16" t="n">
-        <v>531.4810645078202</v>
+        <v>554.1615142565363</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.3419989713617</v>
+        <v>554.1615142565363</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.961976412186</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021236</v>
+        <v>704.7792099021223</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961245</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
@@ -5552,13 +5552,13 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K18" t="n">
-        <v>144.1503362656397</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L18" t="n">
-        <v>571.9377228815845</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O18" t="n">
-        <v>2174.873370568726</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.465921365856</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365856</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.70698219218957</v>
+        <v>53.71501199482643</v>
       </c>
       <c r="C19" t="n">
-        <v>70.69396603770063</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="D19" t="n">
-        <v>70.69396603770063</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="E19" t="n">
-        <v>70.69396603770063</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="F19" t="n">
-        <v>70.69396603770063</v>
+        <v>51.70199584033746</v>
       </c>
       <c r="G19" t="n">
-        <v>69.62128862468035</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H19" t="n">
         <v>50.62931842731714</v>
@@ -5695,28 +5695,28 @@
         <v>782.931691199069</v>
       </c>
       <c r="R19" t="n">
-        <v>644.3863353897066</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S19" t="n">
-        <v>602.5338342705709</v>
+        <v>583.5418640732079</v>
       </c>
       <c r="T19" t="n">
-        <v>538.0008834027213</v>
+        <v>519.0089132053583</v>
       </c>
       <c r="U19" t="n">
-        <v>418.426912793941</v>
+        <v>399.434942596578</v>
       </c>
       <c r="V19" t="n">
-        <v>325.2945617361944</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W19" t="n">
-        <v>206.7411136374243</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X19" t="n">
-        <v>143.0916029166308</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.65939749273863</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
         <v>1137.182987801132</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121863</v>
+        <v>931.9619764121858</v>
       </c>
       <c r="E20" t="n">
-        <v>704.779209902124</v>
+        <v>704.7792099021234</v>
       </c>
       <c r="F20" t="n">
-        <v>458.230972596125</v>
+        <v>458.2309725961244</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J20" t="n">
         <v>167.8985774144699</v>
@@ -5759,7 +5759,7 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M20" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144587</v>
       </c>
       <c r="N20" t="n">
         <v>1679.700173710448</v>
@@ -5768,7 +5768,7 @@
         <v>2074.574784355414</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932842</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5777,7 +5777,7 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
         <v>2469.867611227625</v>
@@ -5792,7 +5792,7 @@
         <v>2018.320468353689</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.893281259014</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
         <v>1577.954379218682</v>
@@ -5805,55 +5805,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E21" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G21" t="n">
         <v>206.1118778881637</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>137.8463925088448</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L21" t="n">
-        <v>565.6337791247895</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.977996776528</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
-        <v>1708.468360447296</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.569426811931</v>
+        <v>1980.672185824252</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621382</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
         <v>2342.369630108873</v>
@@ -5862,13 +5862,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.2523380015519</v>
+        <v>211.2523380015518</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033745</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033745</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033745</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033745</v>
+        <v>209.2393218470629</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731715</v>
+        <v>208.1666444340425</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731715</v>
+        <v>208.1666444340425</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731715</v>
+        <v>71.30488912007448</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
@@ -5947,13 +5947,13 @@
         <v>463.8399175455568</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467867</v>
+        <v>345.2864694467866</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259932</v>
+        <v>281.6369587259931</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.204753302101</v>
+        <v>227.2047533021009</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.961976412186</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021236</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961247</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>358.6187566067425</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L23" t="n">
-        <v>790.6768958565434</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.574482823758</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N23" t="n">
-        <v>1751.079753389619</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.954364034585</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.628765832485</v>
+        <v>2382.628765832484</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.8133128779667</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C24" t="n">
-        <v>755.1096401189216</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D24" t="n">
         <v>616.2710031091337</v>
@@ -6063,37 +6063,37 @@
         <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J24" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K24" t="n">
-        <v>144.1503362656406</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L24" t="n">
-        <v>571.9377228815854</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M24" t="n">
-        <v>1129.281940533324</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1714.772304204092</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T24" t="n">
         <v>2154.858197092098</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015519</v>
+        <v>53.71501199482642</v>
       </c>
       <c r="C25" t="n">
-        <v>209.239321847063</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="D25" t="n">
-        <v>56.16742867482571</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="E25" t="n">
-        <v>56.16742867482571</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="F25" t="n">
-        <v>56.16742867482571</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
@@ -6166,31 +6166,31 @@
         <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794716</v>
       </c>
       <c r="R25" t="n">
-        <v>782.931691199069</v>
+        <v>764.8358896794716</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799333</v>
+        <v>722.9833885603359</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120837</v>
+        <v>519.0089132053583</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033034</v>
+        <v>399.434942596578</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455568</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467867</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259932</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.204753302101</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D26" t="n">
         <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967893</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250974</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353667</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2220468249039</v>
+        <v>118.2220468249038</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166289</v>
       </c>
       <c r="J26" t="n">
-        <v>187.3366846949158</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K26" t="n">
-        <v>596.800282617738</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610936</v>
+        <v>1231.659656648233</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321547</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630805</v>
+        <v>2293.683758630802</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019164</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.365573339989</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516401</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F27" t="n">
-        <v>353.8402176902251</v>
+        <v>353.840217690225</v>
       </c>
       <c r="G27" t="n">
-        <v>225.4029004625095</v>
+        <v>225.4029004625094</v>
       </c>
       <c r="H27" t="n">
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166289</v>
       </c>
       <c r="J27" t="n">
-        <v>69.92034100166293</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K27" t="n">
-        <v>69.92034100166293</v>
+        <v>432.7119054155454</v>
       </c>
       <c r="L27" t="n">
-        <v>497.7077276176077</v>
+        <v>860.4992920314901</v>
       </c>
       <c r="M27" t="n">
-        <v>1055.051945269346</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.542308940114</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O27" t="n">
-        <v>2100.643375304749</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P27" t="n">
-        <v>2457.235926101879</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485931</v>
+        <v>435.0960012485923</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284111</v>
+        <v>369.0145279284104</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743115</v>
+        <v>319.4771309743109</v>
       </c>
       <c r="E28" t="n">
-        <v>271.002612953768</v>
+        <v>271.0026129537675</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976828</v>
+        <v>222.0564541976824</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189691</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974931</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166289</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567083</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266712</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L28" t="n">
         <v>529.9767315995734</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320426</v>
       </c>
       <c r="N28" t="n">
         <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021227</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688838</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362878</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771653</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486824</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453282</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678809</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553702</v>
+        <v>943.957409455369</v>
       </c>
       <c r="W28" t="n">
-        <v>761.335504190907</v>
+        <v>761.3355041909059</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044205</v>
+        <v>633.6175363044194</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148353</v>
+        <v>515.1168737148344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967891</v>
+        <v>964.5773097967884</v>
       </c>
       <c r="F29" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250965</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
@@ -6467,46 +6467,46 @@
         <v>698.1273576550345</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610934</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321545</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630803</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019165</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.365573339989</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516402</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y29" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,19 +6537,19 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J30" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155454</v>
+        <v>345.4948313340178</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314901</v>
+        <v>773.2822179499624</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683228</v>
+        <v>1330.6264356017</v>
       </c>
       <c r="N30" t="n">
         <v>1539.862142033962</v>
@@ -6610,28 +6610,28 @@
         <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189694</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4480754567081</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995732</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6649,19 +6649,19 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553705</v>
+        <v>943.9574094553701</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909073</v>
+        <v>761.3355041909069</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044207</v>
+        <v>633.6175363044204</v>
       </c>
       <c r="Y31" t="n">
         <v>515.1168737148354</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967892</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250973</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353667</v>
+        <v>341.9353438353662</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.2220468249038</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J32" t="n">
         <v>288.6637597322125</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550348</v>
+        <v>596.800282617735</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610933</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358844</v>
+        <v>1718.704328321544</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630802</v>
       </c>
       <c r="O32" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019164</v>
       </c>
       <c r="P32" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.365573339989</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516402</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083145</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701282</v>
+        <v>3424.723957701279</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>488.5340157403507</v>
       </c>
       <c r="F33" t="n">
-        <v>353.8402176902251</v>
+        <v>353.840217690225</v>
       </c>
       <c r="G33" t="n">
-        <v>225.4029004625095</v>
+        <v>225.4029004625094</v>
       </c>
       <c r="H33" t="n">
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>432.7119054155454</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314903</v>
+        <v>860.4992920314901</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683229</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485924</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284105</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743116</v>
+        <v>319.477130974311</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537676</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976825</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189692</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974931</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166291</v>
       </c>
       <c r="J34" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266708</v>
+        <v>292.324072026671</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320428</v>
+        <v>786.9494728320426</v>
       </c>
       <c r="N34" t="n">
         <v>1043.45926282238</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021227</v>
       </c>
       <c r="P34" t="n">
         <v>1470.595406688841</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362878</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771653</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T34" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453282</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678809</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553691</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909074</v>
+        <v>761.335504190906</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044196</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148345</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.711620901877</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E35" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906263</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J35" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430092</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
@@ -6968,19 +6968,19 @@
         <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.702829655339</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V35" t="n">
-        <v>2351.851591887516</v>
+        <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939083</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J36" t="n">
         <v>141.6963688081575</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.3029779201079</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F37" t="n">
-        <v>72.1010685906225</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000757</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K37" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L37" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741643</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162075</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>520.3974937598325</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V37" t="n">
-        <v>413.7902256544912</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W37" t="n">
-        <v>281.7618605081265</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X37" t="n">
-        <v>204.6374327397384</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.7303102682516</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1208.407549338416</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018757</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442188</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906252</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189935</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
         <v>54.47929472662989</v>
@@ -7175,10 +7175,10 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430092</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110224</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.6632891772796</v>
+        <v>920.6632891772798</v>
       </c>
       <c r="C39" t="n">
-        <v>758.9596164182343</v>
+        <v>758.9596164182345</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1209794084464</v>
+        <v>620.1209794084466</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0929694653177</v>
+        <v>473.0929694653178</v>
       </c>
       <c r="F39" t="n">
-        <v>338.399171415192</v>
+        <v>338.3991714151921</v>
       </c>
       <c r="G39" t="n">
         <v>209.9618541874764</v>
@@ -7251,28 +7251,28 @@
         <v>54.47929472662989</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662989</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>330.0537850589848</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L39" t="n">
-        <v>757.8411716749296</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>938.9307320881595</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1524.421095758929</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123563</v>
+        <v>1984.522162123564</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.114712920693</v>
+        <v>2341.114712920694</v>
       </c>
       <c r="Q39" t="n">
-        <v>2535.315897665168</v>
+        <v>2535.315897665169</v>
       </c>
       <c r="R39" t="n">
         <v>2493.610501544505</v>
@@ -7281,7 +7281,7 @@
         <v>2346.219606408185</v>
       </c>
       <c r="T39" t="n">
-        <v>2158.70817339141</v>
+        <v>2158.708173391411</v>
       </c>
       <c r="U39" t="n">
         <v>1940.232537749523</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270651</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062279</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062279</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062279</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062279</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000772</v>
+        <v>57.55347413000764</v>
       </c>
       <c r="H40" t="n">
         <v>54.47929472662989</v>
@@ -7333,49 +7333,49 @@
         <v>54.47929472662989</v>
       </c>
       <c r="K40" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L40" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741643</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S40" t="n">
-        <v>711.7402732042513</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888069</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324319</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>394.0762495270905</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807255</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123373</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408503</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338418</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018766</v>
+        <v>989.7116209018773</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442195</v>
+        <v>749.0539373442205</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906261</v>
+        <v>489.0307829906272</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189931</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
         <v>171.7485537137827</v>
@@ -7415,46 +7415,46 @@
         <v>479.7379918932081</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7961311430091</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M41" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N41" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O41" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P41" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098073</v>
+        <v>2635.416592098072</v>
       </c>
       <c r="U41" t="n">
         <v>2534.702829655338</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W41" t="n">
         <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
         <v>141.6963688081575</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201083</v>
+        <v>107.302977920109</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802472</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802472</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802472</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802472</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000754</v>
+        <v>77.26745025741084</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662989</v>
+        <v>74.19327085403333</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662989</v>
+        <v>74.19327085403333</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662989</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K43" t="n">
-        <v>115.8811315531961</v>
+        <v>115.881131553196</v>
       </c>
       <c r="L43" t="n">
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.558212871774</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316517</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162076</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U43" t="n">
         <v>520.3974937598327</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544915</v>
+        <v>413.7902256544917</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081268</v>
+        <v>281.7618605081271</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397387</v>
+        <v>204.6374327397392</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682519</v>
+        <v>136.7303102682525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669371</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018745</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442177</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906246</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189931</v>
       </c>
       <c r="H44" t="n">
         <v>54.47929472662986</v>
       </c>
       <c r="I44" t="n">
-        <v>54.4792947266285</v>
+        <v>54.47929472662986</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137813</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932068</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430078</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110222</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.198988676083</v>
+        <v>1872.198988676084</v>
       </c>
       <c r="O44" t="n">
         <v>2267.073599321049</v>
@@ -7676,22 +7676,22 @@
         <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098069</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655335</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887513</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.44469808135</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.54259393908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851154</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>209.9618541874764</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8362090731987</v>
+        <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
         <v>54.47929472662986</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>141.6963688081574</v>
       </c>
       <c r="K45" t="n">
         <v>417.2708591405124</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270597</v>
+        <v>107.302977920109</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062242</v>
+        <v>91.8150447180256</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000752</v>
+        <v>77.26745025741084</v>
       </c>
       <c r="H46" t="n">
         <v>54.47929472662986</v>
@@ -7813,43 +7813,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187144</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O46" t="n">
-        <v>694.8757875741643</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983819</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316517</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162076</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U46" t="n">
-        <v>500.6835176324304</v>
+        <v>520.3974937598327</v>
       </c>
       <c r="V46" t="n">
-        <v>394.0762495270892</v>
+        <v>413.7902256544917</v>
       </c>
       <c r="W46" t="n">
-        <v>262.0478843807245</v>
+        <v>281.7618605081271</v>
       </c>
       <c r="X46" t="n">
-        <v>184.9234566123364</v>
+        <v>204.6374327397392</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408496</v>
+        <v>136.7303102682525</v>
       </c>
     </row>
   </sheetData>
@@ -8699,16 +8699,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>568.5510017355793</v>
+        <v>531.564550994864</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>227.7839381316912</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073552</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>154.9918226869888</v>
+        <v>154.9918226869893</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>547.3811427999673</v>
+        <v>393.8132110494462</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.4033357675607</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>159.9124116577337</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,10 +9407,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494462</v>
       </c>
       <c r="N20" t="n">
-        <v>377.9966192443434</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,13 +9489,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869888</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>224.2064063150712</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494453</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.90890232336</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>159.9124116577347</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>65.44673707356948</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>171.4033357675607</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869888</v>
+        <v>243.0898773147946</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869875</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229277</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869873</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406832</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472581</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>225.3613735431732</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.825599723696</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869873</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869873</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842871</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>49.68780055702493</v>
+        <v>107.412849141881</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>163.296248452629</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033077</v>
+        <v>51.13845059993722</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366591</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45645433096664</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>301.105971784287</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.9503343402213</v>
       </c>
       <c r="I14" t="n">
-        <v>18.46489711042264</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842795</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
-        <v>163.296248452629</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.912448502423</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.6093045313684</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438472</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196311</v>
+        <v>50.26384485434893</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592887</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.109729494395836</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.363767619385</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706115</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -26320,7 +26320,7 @@
         <v>134028.4105137782</v>
       </c>
       <c r="E2" t="n">
-        <v>117125.1896709592</v>
+        <v>117125.1896709593</v>
       </c>
       <c r="F2" t="n">
         <v>117125.1896709592</v>
@@ -26335,7 +26335,7 @@
         <v>134334.2105864818</v>
       </c>
       <c r="J2" t="n">
-        <v>134334.2105864817</v>
+        <v>134334.2105864816</v>
       </c>
       <c r="K2" t="n">
         <v>134334.2105864817</v>
@@ -26350,7 +26350,7 @@
         <v>134334.2105864817</v>
       </c>
       <c r="O2" t="n">
-        <v>134334.2105864819</v>
+        <v>134334.2105864818</v>
       </c>
       <c r="P2" t="n">
         <v>134334.2105864818</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149715</v>
+        <v>367830.3395149714</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915254</v>
+        <v>61543.83320915241</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613915</v>
+        <v>83547.74167613917</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915252</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561264</v>
+        <v>20455.48779561279</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>244219.7408414131</v>
       </c>
       <c r="F4" t="n">
-        <v>244219.7408414131</v>
+        <v>244219.7408414133</v>
       </c>
       <c r="G4" t="n">
         <v>300146.3013995251</v>
@@ -26442,22 +26442,22 @@
         <v>298009.3859165158</v>
       </c>
       <c r="K4" t="n">
+        <v>298009.3859165157</v>
+      </c>
+      <c r="L4" t="n">
         <v>298009.3859165158</v>
-      </c>
-      <c r="L4" t="n">
-        <v>298009.3859165157</v>
       </c>
       <c r="M4" t="n">
         <v>296992.7137695695</v>
       </c>
       <c r="N4" t="n">
-        <v>296992.7137695694</v>
+        <v>296992.7137695695</v>
       </c>
       <c r="O4" t="n">
-        <v>296992.7137695695</v>
+        <v>296992.7137695696</v>
       </c>
       <c r="P4" t="n">
-        <v>296992.7137695695</v>
+        <v>296992.7137695696</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975545</v>
+        <v>48881.83299975547</v>
       </c>
       <c r="G5" t="n">
         <v>55349.24364233076</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233077</v>
+        <v>55349.24364233076</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233076</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462551</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="M5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
         <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
-        <v>57153.73105654696</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="P5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296669.3468899378</v>
+        <v>-296673.7154624049</v>
       </c>
       <c r="C6" t="n">
-        <v>-296669.3468899378</v>
+        <v>-296673.715462405</v>
       </c>
       <c r="D6" t="n">
-        <v>-296669.3468899378</v>
+        <v>-296673.715462405</v>
       </c>
       <c r="E6" t="n">
-        <v>-543806.7236851808</v>
+        <v>-544052.5668411166</v>
       </c>
       <c r="F6" t="n">
-        <v>-175976.3841702094</v>
+        <v>-176222.2273261457</v>
       </c>
       <c r="G6" t="n">
-        <v>-282705.1676645267</v>
+        <v>-282705.1676645266</v>
       </c>
       <c r="H6" t="n">
         <v>-221161.3344553741</v>
       </c>
       <c r="I6" t="n">
-        <v>-221161.3344553741</v>
+        <v>-221161.334455374</v>
       </c>
       <c r="J6" t="n">
-        <v>-311901.0283907987</v>
+        <v>-311901.0283907988</v>
       </c>
       <c r="K6" t="n">
-        <v>-228353.2867146597</v>
+        <v>-228353.2867146596</v>
       </c>
       <c r="L6" t="n">
         <v>-289897.1199238122</v>
@@ -26555,13 +26555,13 @@
         <v>-369495.5451811412</v>
       </c>
       <c r="N6" t="n">
-        <v>-219812.2342396345</v>
+        <v>-219812.2342396348</v>
       </c>
       <c r="O6" t="n">
-        <v>-240267.7220352473</v>
+        <v>-240267.7220352476</v>
       </c>
       <c r="P6" t="n">
-        <v>-219812.2342396347</v>
+        <v>-219812.2342396348</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>88.99713233855178</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26707,25 +26707,25 @@
         <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K2" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="N2" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
         <v>134.0206915791157</v>
@@ -26765,19 +26765,19 @@
         <v>134.0206915791156</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791158</v>
+        <v>134.0206915791157</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>632.8664803414642</v>
@@ -26805,28 +26805,28 @@
         <v>632.8664803414642</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414644</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.866480341464</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207861</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207863</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207863</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
         <v>680.9911840828736</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828736</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
         <v>680.9911840828732</v>
@@ -26917,10 +26917,10 @@
         <v>88.99713233855178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144067</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451562</v>
+        <v>25.56935974451576</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144065</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691748</v>
+        <v>50.08760471691731</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451579</v>
+        <v>25.56935974451599</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793225</v>
+        <v>241.1377821793221</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035511</v>
+        <v>439.8534019035513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>88.99713233855178</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144067</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451562</v>
+        <v>25.56935974451576</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591272</v>
+        <v>55.88797492591273</v>
       </c>
       <c r="S11" t="n">
         <v>88.99713233855178</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="17">
@@ -28737,7 +28737,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
-        <v>136.8281430868281</v>
+        <v>155.6301935822177</v>
       </c>
       <c r="I19" t="n">
         <v>135.4931377608283</v>
@@ -28767,10 +28767,10 @@
         <v>17.91484350440139</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334307</v>
       </c>
       <c r="T19" t="n">
         <v>165.9269238499924</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>9.964971103334165</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28977,10 +28977,10 @@
         <v>155.6301935822177</v>
       </c>
       <c r="I22" t="n">
-        <v>135.4931377608283</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3701265538906</v>
+        <v>21.90131156806083</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>161.5061453438491</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
@@ -29247,7 +29247,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499924</v>
+        <v>27.87981460773565</v>
       </c>
       <c r="U25" t="n">
         <v>165.9269238499924</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1485704102021685</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704101986585</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J28" t="n">
-        <v>102.4991512559566</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="L28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="N28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559532</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102007617</v>
       </c>
       <c r="M29" t="n">
         <v>102.4991512559563</v>
@@ -29548,7 +29548,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1485704102023533</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704101990564</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1485704102016712</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="M34" t="n">
-        <v>102.499151255957</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559535</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559564</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C37" t="n">
-        <v>133.069919606746</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>133.0699196067474</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728736</v>
+        <v>133.0699196067466</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>133.0699196067455</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389059</v>
+        <v>22.85329018776117</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="I44" t="n">
-        <v>150.3178400209635</v>
+        <v>150.3178400209649</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591269</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067445</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440137</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="U46" t="n">
-        <v>133.0699196067456</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728739</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642837</v>
+        <v>0.5387766495642835</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350221</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232706</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095667</v>
+        <v>45.72799466095665</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701282</v>
+        <v>68.53441023701279</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611579</v>
+        <v>85.02299612611574</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780461</v>
+        <v>94.60446536780458</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337915</v>
+        <v>96.13526452337911</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427428</v>
+        <v>90.77780421427425</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815602</v>
+        <v>77.47675567815598</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563509</v>
+        <v>58.18181691563507</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319247</v>
+        <v>33.84392871319245</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194612</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467653</v>
+        <v>2.358494783467652</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514268</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097959</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634083</v>
+        <v>2.784090215634082</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736399</v>
+        <v>9.925117253736396</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194085</v>
       </c>
       <c r="K12" t="n">
-        <v>46.5494320930972</v>
+        <v>46.54943209309717</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588796</v>
+        <v>62.59145600588793</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061804</v>
+        <v>73.04127691061801</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933945</v>
+        <v>74.97446216933942</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483291</v>
+        <v>68.58698543483288</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690131</v>
+        <v>55.04710254690129</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149607</v>
+        <v>36.79753026149606</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654681</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429758</v>
       </c>
       <c r="T12" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459185</v>
+        <v>0.01896519220459184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459462</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301233</v>
+        <v>2.148725186301232</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519915</v>
+        <v>7.267876192519911</v>
       </c>
       <c r="J13" t="n">
         <v>17.0865396460784</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608357</v>
+        <v>28.07843341608356</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630915</v>
+        <v>35.93072770630913</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653592</v>
+        <v>37.88391450653591</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428288</v>
+        <v>36.98311969428286</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905067</v>
+        <v>34.15989692905066</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735334</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844646</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412536</v>
+        <v>4.211765012412534</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314498</v>
+        <v>1.032618443314497</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R32" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K34" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R35" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K37" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R38" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K40" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R41" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642843</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350227</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232709</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095671</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701288</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611586</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780469</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337922</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427437</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815608</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563514</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R44" t="n">
-        <v>33.8439287131925</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194614</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467656</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514273</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097963</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634086</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736408</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194089</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309724</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588801</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061811</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933952</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483297</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690136</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.7975302614961</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654683</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429765</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067994</v>
+        <v>1.161934109067993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459187</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459465</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301235</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519921</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607842</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K46" t="n">
-        <v>28.0784334160836</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630918</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653596</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428291</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905071</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735337</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844649</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049683</v>
+        <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412539</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614255</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054802</v>
@@ -35416,19 +35416,19 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113277</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2881520867284</v>
+        <v>441.301701346013</v>
       </c>
       <c r="O11" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>117.3838847586908</v>
+        <v>307.9382672499269</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.567931750521</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>562.9739572239781</v>
+        <v>562.973957223978</v>
       </c>
       <c r="N12" t="n">
-        <v>123.2511437886199</v>
+        <v>123.2511437886204</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834702</v>
+        <v>464.7485518834701</v>
       </c>
       <c r="P12" t="n">
         <v>360.1944957546763</v>
@@ -35653,7 +35653,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M14" t="n">
-        <v>454.8292936706128</v>
+        <v>301.2613619200918</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867284</v>
@@ -35665,7 +35665,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L15" t="n">
         <v>432.1084713292371</v>
@@ -35735,7 +35735,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35744,7 +35744,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.46567458416432</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466118</v>
+        <v>46.62700578466131</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391238</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M16" t="n">
-        <v>246.0664065699379</v>
+        <v>246.0664065699381</v>
       </c>
       <c r="N16" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842263</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415039</v>
+        <v>71.08228883415052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K18" t="n">
-        <v>94.46567458416423</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
         <v>432.1084713292371</v>
@@ -35972,7 +35972,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -35981,7 +35981,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200918</v>
       </c>
       <c r="N20" t="n">
-        <v>287.7337695954924</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
         <v>398.8632430757227</v>
@@ -36200,7 +36200,7 @@
         <v>88.09805462780565</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
         <v>432.1084713292371</v>
@@ -36209,13 +36209,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886199</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3993028378292</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
         <v>196.1628128732074</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054802</v>
@@ -36364,7 +36364,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200908</v>
       </c>
       <c r="N23" t="n">
         <v>478.2881520867284</v>
@@ -36376,7 +36376,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.4673462160049</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K24" t="n">
-        <v>94.46567458416516</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
         <v>432.1084713292371</v>
@@ -36446,7 +36446,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36455,7 +36455,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>118.6023673669221</v>
+        <v>220.9529482126764</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614367</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345431</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426847</v>
+        <v>478.436722496927</v>
       </c>
       <c r="O26" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q26" t="n">
-        <v>256.0670830064772</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004369</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
         <v>432.1084713292371</v>
@@ -36683,7 +36683,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
@@ -36692,7 +36692,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.46567458416432</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206603</v>
+        <v>60.12902470206581</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565283</v>
       </c>
       <c r="L28" t="n">
-        <v>240.0531914877801</v>
+        <v>240.0531914877802</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873426</v>
       </c>
       <c r="N28" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700377</v>
       </c>
       <c r="O28" t="n">
-        <v>236.1172769685319</v>
+        <v>236.117276968532</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016276</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155502</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>413.5995938614365</v>
       </c>
       <c r="L29" t="n">
-        <v>538.9215141345429</v>
+        <v>436.5709332887874</v>
       </c>
       <c r="M29" t="n">
         <v>594.314895667284</v>
@@ -36844,7 +36844,7 @@
         <v>580.7873033426846</v>
       </c>
       <c r="O29" t="n">
-        <v>399.011813485925</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
         <v>410.4374185058832</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780564</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>278.3580710427827</v>
@@ -36920,7 +36920,7 @@
         <v>562.973957223978</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886199</v>
+        <v>211.3491984164257</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834701</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126764</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614366</v>
+        <v>311.2490130156793</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345431</v>
       </c>
       <c r="M32" t="n">
         <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426848</v>
       </c>
       <c r="O32" t="n">
         <v>501.3623943316791</v>
@@ -37087,10 +37087,10 @@
         <v>410.4374185058833</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7165021607227</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004359</v>
+        <v>46.61117633004368</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37157,13 +37157,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886187</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q33" t="n">
         <v>196.1628128732074</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206569</v>
+        <v>60.12902470206579</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565283</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877801</v>
+        <v>240.0531914877802</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873432</v>
+        <v>259.5684254873426</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700376</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685319</v>
+        <v>236.117276968532</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016308</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155207</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P35" t="n">
-        <v>307.9382672499272</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q35" t="n">
         <v>153.567931750521</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427827</v>
@@ -37400,7 +37400,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113278</v>
+        <v>491.8157444113287</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.5679317505211</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37628,16 +37628,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>182.9187478921515</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4044077482507</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
         <v>196.1628128732074</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567201</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
@@ -37874,7 +37874,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,25 +38011,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.378022275413528e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785868</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2881520867285</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757228</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780568</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
@@ -38111,7 +38111,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1944957546764</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q45" t="n">
         <v>196.1628128732074</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.0220574005719</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313862</v>
+        <v>157.0692742313861</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567437</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
